--- a/data CHILE/dta/xlsx/id_zone.xlsx
+++ b/data CHILE/dta/xlsx/id_zone.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Streamlit---Dashboard\data CHILE\dta\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83698C82-D51E-48B3-B3EE-996264783FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31376A5-F2A5-4646-BB2E-57C24E5AC1AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="7170" xr2:uid="{23A446B3-D31F-4DF4-9FD9-8F1F010246EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -463,7 +466,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,27 +493,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -519,15 +522,15 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -536,41 +539,41 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -592,155 +595,155 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
         <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,6 +764,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{EE6C6A0A-7EFC-4E47-B1B1-19BCF08FB31F}">
+    <sortState ref="A2:E17">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>